--- a/73c3293c (Electrofishing SFA 18A,B)/electrofishing_data_dictionary.xlsx
+++ b/73c3293c (Electrofishing SFA 18A,B)/electrofishing_data_dictionary.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fishmand\Projects\fgp-datasets\73c3293c (Electrofishing SFA 18A,B)\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B0BE6D-B42D-4A49-8B13-2B77D844A263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dict" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="215">
   <si>
     <t>Data Dictionary - dictionnaire des données</t>
   </si>
@@ -722,8 +728,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -779,26 +785,34 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:D73" totalsRowShown="0">
-  <autoFilter ref="A3:D73"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A3:D73" totalsRowShown="0">
+  <autoFilter ref="A3:D73" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="NAME__NOM"/>
-    <tableColumn id="2" name="DOCUMENT"/>
-    <tableColumn id="3" name="DESCRIPTION_EN"/>
-    <tableColumn id="4" name="DESCRIPTION_FR"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="NAME__NOM"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DOCUMENT"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="DESCRIPTION_EN"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="DESCRIPTION_FR"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -836,7 +850,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -870,6 +884,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -904,9 +919,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1079,25 +1095,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D73"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="66.7109375" customWidth="1"/>
     <col min="2" max="2" width="81" customWidth="1"/>
-    <col min="3" max="3" width="110.7109375" customWidth="1"/>
-    <col min="4" max="4" width="110.7109375" customWidth="1"/>
+    <col min="3" max="4" width="110.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1111,7 +1128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1125,7 +1142,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1139,7 +1156,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1153,7 +1170,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -1167,7 +1184,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1181,7 +1198,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -1195,7 +1212,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -1209,7 +1226,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -1223,7 +1240,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
@@ -1237,7 +1254,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
@@ -1251,7 +1268,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
@@ -1265,7 +1282,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>38</v>
       </c>
@@ -1279,7 +1296,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
@@ -1293,7 +1310,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>44</v>
       </c>
@@ -1307,7 +1324,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>47</v>
       </c>
@@ -1321,7 +1338,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>50</v>
       </c>
@@ -1335,7 +1352,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>53</v>
       </c>
@@ -1349,7 +1366,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>56</v>
       </c>
@@ -1363,7 +1380,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>59</v>
       </c>
@@ -1377,7 +1394,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>62</v>
       </c>
@@ -1391,7 +1408,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>65</v>
       </c>
@@ -1405,7 +1422,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>68</v>
       </c>
@@ -1419,7 +1436,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>71</v>
       </c>
@@ -1433,7 +1450,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>74</v>
       </c>
@@ -1447,7 +1464,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>77</v>
       </c>
@@ -1461,7 +1478,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>80</v>
       </c>
@@ -1475,7 +1492,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>83</v>
       </c>
@@ -1489,7 +1506,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>86</v>
       </c>
@@ -1503,7 +1520,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>89</v>
       </c>
@@ -1517,7 +1534,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>92</v>
       </c>
@@ -1531,7 +1548,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>95</v>
       </c>
@@ -1545,7 +1562,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>98</v>
       </c>
@@ -1559,7 +1576,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>101</v>
       </c>
@@ -1573,7 +1590,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>104</v>
       </c>
@@ -1587,7 +1604,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>107</v>
       </c>
@@ -1601,7 +1618,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>110</v>
       </c>
@@ -1615,7 +1632,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>113</v>
       </c>
@@ -1629,7 +1646,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>116</v>
       </c>
@@ -1643,7 +1660,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>119</v>
       </c>
@@ -1657,7 +1674,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>122</v>
       </c>
@@ -1671,7 +1688,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>125</v>
       </c>
@@ -1685,7 +1702,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>128</v>
       </c>
@@ -1699,7 +1716,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>131</v>
       </c>
@@ -1713,7 +1730,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>134</v>
       </c>
@@ -1727,7 +1744,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>137</v>
       </c>
@@ -1741,7 +1758,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>140</v>
       </c>
@@ -1755,7 +1772,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>143</v>
       </c>
@@ -1769,7 +1786,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>146</v>
       </c>
@@ -1783,7 +1800,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>149</v>
       </c>
@@ -1797,7 +1814,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>152</v>
       </c>
@@ -1811,7 +1828,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>155</v>
       </c>
@@ -1825,7 +1842,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" ht="375" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>159</v>
       </c>
@@ -1839,7 +1856,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>162</v>
       </c>
@@ -1853,7 +1870,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>165</v>
       </c>
@@ -1867,7 +1884,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>168</v>
       </c>
@@ -1881,7 +1898,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>171</v>
       </c>
@@ -1895,7 +1912,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>172</v>
       </c>
@@ -1909,7 +1926,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>175</v>
       </c>
@@ -1923,7 +1940,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>178</v>
       </c>
@@ -1937,7 +1954,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>181</v>
       </c>
@@ -1951,7 +1968,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>184</v>
       </c>
@@ -1965,7 +1982,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>187</v>
       </c>
@@ -1979,7 +1996,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>190</v>
       </c>
@@ -1993,7 +2010,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>193</v>
       </c>
@@ -2007,7 +2024,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>196</v>
       </c>
@@ -2021,7 +2038,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>199</v>
       </c>
@@ -2035,7 +2052,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>202</v>
       </c>
@@ -2049,7 +2066,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>205</v>
       </c>
@@ -2063,7 +2080,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>208</v>
       </c>
@@ -2077,7 +2094,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>212</v>
       </c>
